--- a/medicine/Soins infirmiers et profession infirmière/1989_en_santé_et_médecine/1989_en_santé_et_médecine.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/1989_en_santé_et_médecine/1989_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1989_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1989_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1989 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1989_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1989_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,11 @@
           <t>Évènements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Dernier cas de poliomyélite autochtone documenté, le dernier cas importé[Où ?] surviendra en 1995.
-Chine
-15 avril : Hu Yaobang, secrétaire général du parti communiste chinois de 1980 à 1987, meurt d'un infarctus du myocarde[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Dernier cas de poliomyélite autochtone documenté, le dernier cas importé[Où ?] surviendra en 1995.</t>
         </is>
       </c>
     </row>
@@ -525,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1989_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1989_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -540,10 +552,48 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Évènements</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Chine</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>15 avril : Hu Yaobang, secrétaire général du parti communiste chinois de 1980 à 1987, meurt d'un infarctus du myocarde.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1989_en_santé_et_médecine</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/1989_en_sant%C3%A9_et_m%C3%A9decine</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Décès</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>27 février : Konrad Lorenz (né en 1903), médecin, biologiste et zoologiste autrichien, lauréat du prix Nobel de médecine, partagé en 1973 avec Karl von Frisch et Nikolaas Tinbergen pour leurs découvertes concernant « les modes de comportement individuel et social ».</t>
         </is>
